--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H2">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J2">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N2">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q2">
-        <v>24.51392757971749</v>
+        <v>234.9864544099147</v>
       </c>
       <c r="R2">
-        <v>24.51392757971749</v>
+        <v>2114.878089689232</v>
       </c>
       <c r="S2">
-        <v>0.005245699189763889</v>
+        <v>0.03048267512440758</v>
       </c>
       <c r="T2">
-        <v>0.005245699189763889</v>
+        <v>0.03048267512440758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H3">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J3">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N3">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q3">
-        <v>112.9054466916458</v>
+        <v>807.6947307005547</v>
       </c>
       <c r="R3">
-        <v>112.9054466916458</v>
+        <v>7269.252576304993</v>
       </c>
       <c r="S3">
-        <v>0.02416046993303232</v>
+        <v>0.1047749587841863</v>
       </c>
       <c r="T3">
-        <v>0.02416046993303232</v>
+        <v>0.1047749587841863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H4">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I4">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J4">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N4">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q4">
-        <v>152.9653166328079</v>
+        <v>1173.029803075168</v>
       </c>
       <c r="R4">
-        <v>152.9653166328079</v>
+        <v>10557.26822767651</v>
       </c>
       <c r="S4">
-        <v>0.03273282238895903</v>
+        <v>0.152166585466296</v>
       </c>
       <c r="T4">
-        <v>0.03273282238895903</v>
+        <v>0.152166585466296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.16528027653171</v>
+        <v>22.614608</v>
       </c>
       <c r="H5">
-        <v>3.16528027653171</v>
+        <v>67.843824</v>
       </c>
       <c r="I5">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="J5">
-        <v>0.07991222694478667</v>
+        <v>0.3650188533124966</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N5">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q5">
-        <v>83.05695589880212</v>
+        <v>598.165608360064</v>
       </c>
       <c r="R5">
-        <v>83.05695589880212</v>
+        <v>5383.490475240576</v>
       </c>
       <c r="S5">
-        <v>0.01777323543303143</v>
+        <v>0.07759463393760677</v>
       </c>
       <c r="T5">
-        <v>0.01777323543303143</v>
+        <v>0.07759463393760677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H6">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I6">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J6">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N6">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q6">
-        <v>88.92745178851904</v>
+        <v>128.6596120113492</v>
       </c>
       <c r="R6">
-        <v>88.92745178851904</v>
+        <v>1157.936508102143</v>
       </c>
       <c r="S6">
-        <v>0.01902945418590396</v>
+        <v>0.01668985203603638</v>
       </c>
       <c r="T6">
-        <v>0.01902945418590396</v>
+        <v>0.01668985203603638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H7">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I7">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J7">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N7">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q7">
-        <v>409.5791518793516</v>
+        <v>442.2284294492509</v>
       </c>
       <c r="R7">
-        <v>409.5791518793516</v>
+        <v>3980.055865043258</v>
       </c>
       <c r="S7">
-        <v>0.08764523833118283</v>
+        <v>0.05736630896248693</v>
       </c>
       <c r="T7">
-        <v>0.08764523833118283</v>
+        <v>0.05736630896248692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H8">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I8">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J8">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N8">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q8">
-        <v>554.9015259160009</v>
+        <v>642.2564216324153</v>
       </c>
       <c r="R8">
-        <v>554.9015259160009</v>
+        <v>5780.307794691737</v>
       </c>
       <c r="S8">
-        <v>0.1187425587119996</v>
+        <v>0.08331413781423233</v>
       </c>
       <c r="T8">
-        <v>0.1187425587119996</v>
+        <v>0.08331413781423233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4824647447077</v>
+        <v>12.38193366666667</v>
       </c>
       <c r="H9">
-        <v>11.4824647447077</v>
+        <v>37.145801</v>
       </c>
       <c r="I9">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="J9">
-        <v>0.2898919679776424</v>
+        <v>0.1998548561530699</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N9">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q9">
-        <v>301.2998801343851</v>
+        <v>327.5071973122693</v>
       </c>
       <c r="R9">
-        <v>301.2998801343851</v>
+        <v>2947.564775810424</v>
       </c>
       <c r="S9">
-        <v>0.06447471674855602</v>
+        <v>0.04248455734031424</v>
       </c>
       <c r="T9">
-        <v>0.06447471674855602</v>
+        <v>0.04248455734031424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H10">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I10">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J10">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N10">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q10">
-        <v>139.2296759713733</v>
+        <v>205.9767811194084</v>
       </c>
       <c r="R10">
-        <v>139.2296759713733</v>
+        <v>1853.791030074676</v>
       </c>
       <c r="S10">
-        <v>0.02979355291228035</v>
+        <v>0.0267195116322808</v>
       </c>
       <c r="T10">
-        <v>0.02979355291228035</v>
+        <v>0.0267195116322808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H11">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I11">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J11">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N11">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q11">
-        <v>641.2594924726527</v>
+        <v>707.9827693667618</v>
       </c>
       <c r="R11">
-        <v>641.2594924726527</v>
+        <v>6371.844924300856</v>
       </c>
       <c r="S11">
-        <v>0.1372221725446969</v>
+        <v>0.09184022460562226</v>
       </c>
       <c r="T11">
-        <v>0.1372221725446969</v>
+        <v>0.09184022460562226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H12">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I12">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J12">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N12">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q12">
-        <v>868.7841391546527</v>
+        <v>1028.21630123869</v>
       </c>
       <c r="R12">
-        <v>868.7841391546527</v>
+        <v>9253.946711148215</v>
       </c>
       <c r="S12">
-        <v>0.185909835950319</v>
+        <v>0.1333812348757945</v>
       </c>
       <c r="T12">
-        <v>0.185909835950319</v>
+        <v>0.1333812348757945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.977574006734</v>
+        <v>19.82277733333333</v>
       </c>
       <c r="H13">
-        <v>17.977574006734</v>
+        <v>59.468332</v>
       </c>
       <c r="I13">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="J13">
-        <v>0.4538706997274126</v>
+        <v>0.3199563508543806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N13">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P13">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q13">
-        <v>471.7315501301701</v>
+        <v>524.3205481598186</v>
       </c>
       <c r="R13">
-        <v>471.7315501301701</v>
+        <v>4718.884933438368</v>
       </c>
       <c r="S13">
-        <v>0.1009451383201163</v>
+        <v>0.06801537974068304</v>
       </c>
       <c r="T13">
-        <v>0.1009451383201163</v>
+        <v>0.06801537974068304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H14">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I14">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J14">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N14">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P14">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q14">
-        <v>54.08960591257586</v>
+        <v>74.14240534269101</v>
       </c>
       <c r="R14">
-        <v>54.08960591257586</v>
+        <v>667.281648084219</v>
       </c>
       <c r="S14">
-        <v>0.01157455495401758</v>
+        <v>0.00961782610269485</v>
       </c>
       <c r="T14">
-        <v>0.01157455495401758</v>
+        <v>0.009617826102694849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H15">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I15">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J15">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N15">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P15">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q15">
-        <v>249.1241396171589</v>
+        <v>254.842051500946</v>
       </c>
       <c r="R15">
-        <v>249.1241396171589</v>
+        <v>2293.578463508514</v>
       </c>
       <c r="S15">
-        <v>0.05330970702636858</v>
+        <v>0.03305836280413754</v>
       </c>
       <c r="T15">
-        <v>0.05330970702636858</v>
+        <v>0.03305836280413753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H16">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I16">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J16">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N16">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P16">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q16">
-        <v>337.5156293521331</v>
+        <v>370.111763918706</v>
       </c>
       <c r="R16">
-        <v>337.5156293521331</v>
+        <v>3331.005875268354</v>
       </c>
       <c r="S16">
-        <v>0.07222447148330598</v>
+        <v>0.04801126383044543</v>
       </c>
       <c r="T16">
-        <v>0.07222447148330598</v>
+        <v>0.04801126383044543</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.98414247181285</v>
+        <v>7.135311000000001</v>
       </c>
       <c r="H17">
-        <v>6.98414247181285</v>
+        <v>21.405933</v>
       </c>
       <c r="I17">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="J17">
-        <v>0.1763251053501582</v>
+        <v>0.115169939680053</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N17">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P17">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q17">
-        <v>183.2639016434662</v>
+        <v>188.731887156888</v>
       </c>
       <c r="R17">
-        <v>183.2639016434662</v>
+        <v>1698.586984411992</v>
       </c>
       <c r="S17">
-        <v>0.03921637188646612</v>
+        <v>0.02448248694277517</v>
       </c>
       <c r="T17">
-        <v>0.03921637188646612</v>
+        <v>0.02448248694277517</v>
       </c>
     </row>
   </sheetData>
